--- a/Documentation/reports/John's eval.xlsx
+++ b/Documentation/reports/John's eval.xlsx
@@ -8,17 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c56e8f5f32bf7d06/Desktop/Napier/Group Project/git/MENS-SHED-SOC09109/Documentation/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="113" documentId="8_{CE7739B4-E88F-41C1-A5F6-B1541A786838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA8A7F71-0AA1-41C1-95FE-C2ABEEF44D92}"/>
+  <xr:revisionPtr revIDLastSave="154" documentId="8_{CE7739B4-E88F-41C1-A5F6-B1541A786838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{197781D0-7C22-4A5C-9B18-2D433E52A814}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" activeTab="3" xr2:uid="{D3077E67-E41E-4D18-ABDC-75152CBB6115}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" activeTab="8" xr2:uid="{D3077E67-E41E-4D18-ABDC-75152CBB6115}"/>
   </bookViews>
   <sheets>
     <sheet name="John" sheetId="1" r:id="rId1"/>
-    <sheet name="Iain" sheetId="2" r:id="rId2"/>
-    <sheet name="Joe" sheetId="4" r:id="rId3"/>
-    <sheet name="Totals" sheetId="3" r:id="rId4"/>
+    <sheet name="Joe" sheetId="4" r:id="rId2"/>
+    <sheet name="Jonathan" sheetId="5" r:id="rId3"/>
+    <sheet name="Rory" sheetId="6" r:id="rId4"/>
+    <sheet name="Duncan" sheetId="7" r:id="rId5"/>
+    <sheet name="Daniel" sheetId="8" r:id="rId6"/>
+    <sheet name="Iain" sheetId="2" r:id="rId7"/>
+    <sheet name="Client" sheetId="9" r:id="rId8"/>
+    <sheet name="Totals" sheetId="3" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -61,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="30">
   <si>
     <t>Evaluate stakeholder satisfaction</t>
   </si>
@@ -141,20 +146,23 @@
     <t>Totals</t>
   </si>
   <si>
-    <t>of a possible 320 each</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
     <t>Sponsor</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>of a possible</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +193,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -415,10 +430,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -446,109 +462,109 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -558,27 +574,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -591,6 +609,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -900,17 +922,17 @@
   <sheetData>
     <row r="1" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:11" ht="20.25" x14ac:dyDescent="0.7">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
       <c r="K2" s="12"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.45">
@@ -1036,31 +1058,31 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="38" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="39"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="23"/>
       <c r="K13" s="11"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="41"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="26"/>
       <c r="K14" s="11"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.45">
@@ -1069,10 +1091,10 @@
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="36"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="41"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="26"/>
       <c r="K15" s="11"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.45">
@@ -1081,34 +1103,34 @@
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="41"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="26"/>
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B17" s="1"/>
-      <c r="G17" s="40"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="41"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="26"/>
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B18" s="1"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="41"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="26"/>
       <c r="K18" s="11"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B19" s="1"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="43"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="44"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="29"/>
       <c r="K19" s="11"/>
     </row>
     <row r="20" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -1117,10 +1139,10 @@
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
       <c r="K20" s="6"/>
     </row>
   </sheetData>
@@ -1135,6 +1157,1053 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB1F546-72E2-42E1-BB59-953EDB120818}">
+  <dimension ref="B1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:11" ht="20.25" x14ac:dyDescent="0.7">
+      <c r="B2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="12"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B3" s="1"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B5" s="1"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B6" s="1"/>
+      <c r="H6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="7">
+        <v>7</v>
+      </c>
+      <c r="I7" s="7">
+        <v>8</v>
+      </c>
+      <c r="J7" s="7">
+        <v>9</v>
+      </c>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="7">
+        <v>6</v>
+      </c>
+      <c r="I8" s="7">
+        <v>9</v>
+      </c>
+      <c r="J8" s="7">
+        <v>9</v>
+      </c>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B9" s="3">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="7">
+        <v>7</v>
+      </c>
+      <c r="I9" s="7">
+        <v>8</v>
+      </c>
+      <c r="J9" s="7">
+        <v>9</v>
+      </c>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B10" s="3">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="7">
+        <v>8</v>
+      </c>
+      <c r="I10" s="7">
+        <v>9</v>
+      </c>
+      <c r="J10" s="7">
+        <v>8</v>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B11" s="3"/>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="7">
+        <f>SUM(H7:H10)</f>
+        <v>28</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" ref="I11:J11" si="0">SUM(I7:I10)</f>
+        <v>34</v>
+      </c>
+      <c r="J11" s="7">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B12" s="3"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B13" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="11"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="11"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="11"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B17" s="1"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B13:F14"/>
+    <mergeCell ref="G13:J17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19DF56B2-809B-467E-8B56-3C7886F6BA51}">
+  <dimension ref="B1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:11" ht="20.25" x14ac:dyDescent="0.7">
+      <c r="B2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="12"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B3" s="1"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B5" s="1"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B6" s="1"/>
+      <c r="H6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="7">
+        <v>7</v>
+      </c>
+      <c r="I7" s="7">
+        <v>8</v>
+      </c>
+      <c r="J7" s="7">
+        <v>9</v>
+      </c>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="7">
+        <v>8</v>
+      </c>
+      <c r="I8" s="7">
+        <v>8</v>
+      </c>
+      <c r="J8" s="7">
+        <v>8</v>
+      </c>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B9" s="3">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="7">
+        <v>8</v>
+      </c>
+      <c r="I9" s="7">
+        <v>9</v>
+      </c>
+      <c r="J9" s="7">
+        <v>9</v>
+      </c>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B10" s="3">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="7">
+        <v>9</v>
+      </c>
+      <c r="I10" s="7">
+        <v>9</v>
+      </c>
+      <c r="J10" s="7">
+        <v>8</v>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B11" s="3"/>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="7">
+        <f>SUM(H7:H10)</f>
+        <v>32</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" ref="I11:J11" si="0">SUM(I7:I10)</f>
+        <v>34</v>
+      </c>
+      <c r="J11" s="7">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B12" s="3"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B13" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="11"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="11"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="11"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B17" s="1"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B13:F14"/>
+    <mergeCell ref="G13:J17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8AE764-CA96-E54E-A7D5-55C497A5CB3C}">
+  <dimension ref="A1:J12"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
+      </c>
+      <c r="J7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>9</v>
+      </c>
+      <c r="J8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10">
+        <v>30</v>
+      </c>
+      <c r="I10">
+        <v>29</v>
+      </c>
+      <c r="J10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00D3515-E8E4-4ECD-A515-F914B6732B40}">
+  <dimension ref="B1:K20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:11" ht="20.25" x14ac:dyDescent="0.7">
+      <c r="B2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="12"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B3" s="1"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B5" s="1"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B6" s="1"/>
+      <c r="H6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="7">
+        <v>8</v>
+      </c>
+      <c r="I7" s="7">
+        <v>8</v>
+      </c>
+      <c r="J7" s="7">
+        <v>8</v>
+      </c>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="7">
+        <v>8</v>
+      </c>
+      <c r="I8" s="7">
+        <v>8</v>
+      </c>
+      <c r="J8" s="7">
+        <v>8</v>
+      </c>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B9" s="3">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="7">
+        <v>8</v>
+      </c>
+      <c r="I9" s="7">
+        <v>8</v>
+      </c>
+      <c r="J9" s="7">
+        <v>9</v>
+      </c>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B10" s="3">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="7">
+        <v>7</v>
+      </c>
+      <c r="I10" s="7">
+        <v>8</v>
+      </c>
+      <c r="J10" s="7">
+        <v>8</v>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B11" s="3"/>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="7">
+        <f>SUM(H7:H10)</f>
+        <v>31</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" ref="I11:J11" si="0">SUM(I7:I10)</f>
+        <v>32</v>
+      </c>
+      <c r="J11" s="7">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B12" s="3"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B13" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="11"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="11"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="11"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B17" s="1"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B18" s="1"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="11"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B19" s="1"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B13:F14"/>
+    <mergeCell ref="G13:J19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA423B8-1850-4CE0-8F20-8EBCFD3C27B2}">
+  <dimension ref="B1:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:11" ht="20.25" x14ac:dyDescent="0.7">
+      <c r="B2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="12"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B3" s="1"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B5" s="1"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B6" s="1"/>
+      <c r="H6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="7">
+        <v>10</v>
+      </c>
+      <c r="I7" s="7">
+        <v>10</v>
+      </c>
+      <c r="J7" s="7">
+        <v>10</v>
+      </c>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="7">
+        <v>7</v>
+      </c>
+      <c r="I8" s="7">
+        <v>8</v>
+      </c>
+      <c r="J8" s="7">
+        <v>8</v>
+      </c>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B9" s="3">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="7">
+        <v>9</v>
+      </c>
+      <c r="I9" s="7">
+        <v>10</v>
+      </c>
+      <c r="J9" s="7">
+        <v>10</v>
+      </c>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B10" s="3">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="7">
+        <v>8</v>
+      </c>
+      <c r="I10" s="7">
+        <v>10</v>
+      </c>
+      <c r="J10" s="7">
+        <v>7</v>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B11" s="3"/>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="7">
+        <f>SUM(H7:H10)</f>
+        <v>34</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" ref="I11:J11" si="0">SUM(I7:I10)</f>
+        <v>38</v>
+      </c>
+      <c r="J11" s="7">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B12" s="3"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B13" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="11"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="11"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="11"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B17" s="1"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B13:F14"/>
+    <mergeCell ref="G13:J17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D967B32-A26E-4C14-88F3-859A5845DE70}">
   <dimension ref="B1:K18"/>
   <sheetViews>
@@ -1146,17 +2215,17 @@
   <sheetData>
     <row r="1" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:11" ht="20.25" x14ac:dyDescent="0.7">
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
       <c r="K2" s="12"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.45">
@@ -1282,31 +2351,31 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="26" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="28"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="32"/>
       <c r="K13" s="11"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="29"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="33"/>
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
-      <c r="J14" s="30"/>
+      <c r="J14" s="35"/>
       <c r="K14" s="11"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.45">
@@ -1315,10 +2384,10 @@
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="29"/>
+      <c r="G15" s="33"/>
       <c r="H15" s="34"/>
       <c r="I15" s="34"/>
-      <c r="J15" s="30"/>
+      <c r="J15" s="35"/>
       <c r="K15" s="11"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.45">
@@ -1327,18 +2396,18 @@
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="29"/>
+      <c r="G16" s="33"/>
       <c r="H16" s="34"/>
       <c r="I16" s="34"/>
-      <c r="J16" s="30"/>
+      <c r="J16" s="35"/>
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B17" s="1"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="33"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="38"/>
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -1363,272 +2432,61 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB1F546-72E2-42E1-BB59-953EDB120818}">
-  <dimension ref="B1:K18"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3A0818E-3F71-401B-A899-BB2C4802C4EA}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:11" ht="20.25" x14ac:dyDescent="0.7">
-      <c r="B2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B3" s="1"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B5" s="1"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B6" s="1"/>
-      <c r="H6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="7">
-        <v>7</v>
-      </c>
-      <c r="I7" s="7">
-        <v>8</v>
-      </c>
-      <c r="J7" s="7">
-        <v>9</v>
-      </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B8" s="3">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="7">
-        <v>6</v>
-      </c>
-      <c r="I8" s="7">
-        <v>9</v>
-      </c>
-      <c r="J8" s="7">
-        <v>9</v>
-      </c>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B9" s="3">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9" s="7">
-        <v>7</v>
-      </c>
-      <c r="I9" s="7">
-        <v>8</v>
-      </c>
-      <c r="J9" s="7">
-        <v>9</v>
-      </c>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B10" s="3">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="7">
-        <v>8</v>
-      </c>
-      <c r="I10" s="7">
-        <v>9</v>
-      </c>
-      <c r="J10" s="7">
-        <v>8</v>
-      </c>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B11" s="3"/>
-      <c r="G11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="7">
-        <f>SUM(H7:H10)</f>
-        <v>28</v>
-      </c>
-      <c r="I11" s="7">
-        <f t="shared" ref="I11:J11" si="0">SUM(I7:I10)</f>
-        <v>34</v>
-      </c>
-      <c r="J11" s="7">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B12" s="3"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B13" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="11"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="11"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="11"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="11"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B17" s="1"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="11"/>
-    </row>
-    <row r="18" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B18" s="4"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B13:F14"/>
-    <mergeCell ref="G13:J17"/>
-  </mergeCells>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD4CD36-B728-455E-B931-F48CC96E8E9D}">
-  <dimension ref="B3:G28"/>
+  <dimension ref="B3:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="10.3984375" customWidth="1"/>
+    <col min="6" max="6" width="12.265625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="21" x14ac:dyDescent="0.45">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="46"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="47" t="s">
+      <c r="D7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="15" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="14" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="8" cm="1">
@@ -1643,23 +2501,37 @@
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="C9" s="8" cm="1">
+        <f t="array" ref="C9:E9">Rory!H10:J10</f>
+        <v>30</v>
+      </c>
+      <c r="D9" s="8">
+        <v>29</v>
+      </c>
+      <c r="E9" s="8">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="C10" s="8" cm="1">
+        <f t="array" ref="C10:E10">Jonathan!H11:J11</f>
+        <v>32</v>
+      </c>
+      <c r="D10" s="8">
+        <v>34</v>
+      </c>
+      <c r="E10" s="8">
+        <v>34</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B11" s="46" t="s">
+      <c r="B11" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="8" cm="1">
@@ -1674,24 +2546,38 @@
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="C12" s="8" cm="1">
+        <f t="array" ref="C12:E12">Duncan!H11:J11</f>
+        <v>31</v>
+      </c>
+      <c r="D12" s="8">
+        <v>32</v>
+      </c>
+      <c r="E12" s="8">
+        <v>33</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="C13" s="8" cm="1">
+        <f t="array" ref="C13:E13">Daniel!H11:J11</f>
+        <v>34</v>
+      </c>
+      <c r="D13" s="8">
+        <v>38</v>
+      </c>
+      <c r="E13" s="8">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B14" s="46" t="s">
-        <v>28</v>
+      <c r="B14" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="C14" s="8" cm="1">
         <f t="array" ref="C14:E14">Iain!H11:J11</f>
@@ -1705,7 +2591,7 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="8"/>
@@ -1713,119 +2599,149 @@
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B16" s="46" t="s">
+      <c r="B16" s="14" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="8">
         <f>SUM(C8:C15)</f>
-        <v>87</v>
+        <v>214</v>
       </c>
       <c r="D16" s="8">
         <f t="shared" ref="D16:E16" si="0">SUM(D8:D15)</f>
-        <v>97</v>
+        <v>230</v>
       </c>
       <c r="E16" s="8">
         <f t="shared" si="0"/>
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="F16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="F17">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B18" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="57">
+        <f>C16/$F$17</f>
+        <v>0.66874999999999996</v>
+      </c>
+      <c r="D18" s="57">
+        <f t="shared" ref="D18:E18" si="1">D16/$F$17</f>
+        <v>0.71875</v>
+      </c>
+      <c r="E18" s="57">
+        <f t="shared" si="1"/>
+        <v>0.72499999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B20" s="14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="87" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B23" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="48" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B19" s="46" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="87" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B22" s="56" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="50"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B23" s="56" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="48"/>
       <c r="D23" s="49"/>
       <c r="E23" s="49"/>
       <c r="F23" s="50"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="50"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B25" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="52" t="s">
+      <c r="C25" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="56"/>
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B26" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="56"/>
+      <c r="E26" s="56"/>
+      <c r="F26" s="56"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B27" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" s="56"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+    </row>
+    <row r="28" spans="2:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B25" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="48"/>
-      <c r="D25" s="49"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="50"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B26" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="50"/>
-    </row>
-    <row r="27" spans="2:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="56" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="51" t="s">
+      <c r="C28" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B28" s="56" t="s">
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B29" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="55"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C28:F28"/>
     <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="B3:G3"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C23:F23"/>
     <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documentation/reports/John's eval.xlsx
+++ b/Documentation/reports/John's eval.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c56e8f5f32bf7d06/Desktop/Napier/Group Project/git/MENS-SHED-SOC09109/Documentation/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="154" documentId="8_{CE7739B4-E88F-41C1-A5F6-B1541A786838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{197781D0-7C22-4A5C-9B18-2D433E52A814}"/>
+  <xr:revisionPtr revIDLastSave="186" documentId="8_{CE7739B4-E88F-41C1-A5F6-B1541A786838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9112EBE-C6C1-4B28-AEC3-BB1F56E3B52E}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" activeTab="8" xr2:uid="{D3077E67-E41E-4D18-ABDC-75152CBB6115}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" activeTab="9" xr2:uid="{D3077E67-E41E-4D18-ABDC-75152CBB6115}"/>
   </bookViews>
   <sheets>
     <sheet name="John" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,14 @@
     <sheet name="Iain" sheetId="2" r:id="rId7"/>
     <sheet name="Client" sheetId="9" r:id="rId8"/>
     <sheet name="Totals" sheetId="3" r:id="rId9"/>
+    <sheet name="Eval" sheetId="10" r:id="rId10"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Eval!$AG$4:$AG$7</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Eval!#REF!</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Eval!#REF!</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Eval!$G$4:$G$7</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -66,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="30">
   <si>
     <t>Evaluate stakeholder satisfaction</t>
   </si>
@@ -472,6 +479,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -512,6 +520,33 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -538,32 +573,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -574,25 +600,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,6 +616,1057 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Eval!$C$4:$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>The project documentation that you saw</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Communications with the team</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>The quality of the work that you have seen</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>The pace of the project</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Eval!$G$4:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80833333333333335</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A3A5-4DF0-B420-29A368512DEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1217566959"/>
+        <c:axId val="1217565519"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Eval!$C$4:$C$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>The project documentation that you saw</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Communications with the team</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>The quality of the work that you have seen</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>The pace of the project</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Eval!$D$4:$D$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-A3A5-4DF0-B420-29A368512DEA}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Eval!$C$4:$C$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>The project documentation that you saw</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Communications with the team</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>The quality of the work that you have seen</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>The pace of the project</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Eval!$E$4:$E$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-A3A5-4DF0-B420-29A368512DEA}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent3"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Eval!$C$4:$C$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>The project documentation that you saw</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Communications with the team</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>The quality of the work that you have seen</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>The pace of the project</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Eval!$F$4:$F$7</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-A3A5-4DF0-B420-29A368512DEA}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1217566959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1217565519"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1217565519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1217566959"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>121443</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>116681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>211930</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>145256</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEF3B37B-551B-7E41-89A6-1BC5F44DE9A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -915,24 +1973,24 @@
   <dimension ref="B1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:J19"/>
+      <selection activeCell="J10" sqref="B7:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:11" ht="20.25" x14ac:dyDescent="0.7">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
       <c r="K2" s="12"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.45">
@@ -1058,31 +2116,31 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21" t="s">
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="24"/>
       <c r="K13" s="11"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="26"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="27"/>
       <c r="K14" s="11"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.45">
@@ -1091,10 +2149,10 @@
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="26"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="27"/>
       <c r="K15" s="11"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.45">
@@ -1103,34 +2161,34 @@
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="26"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="27"/>
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B17" s="1"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="26"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B18" s="1"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="26"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="27"/>
       <c r="K18" s="11"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B19" s="1"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="29"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="30"/>
       <c r="K19" s="11"/>
     </row>
     <row r="20" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -1156,29 +2214,407 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E01F299-12CE-48B6-9D11-96D6ACC209DD}">
+  <dimension ref="B3:AH7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="C4:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="8" max="22" width="1.73046875" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="2.73046875" bestFit="1" customWidth="1"/>
+    <col min="26" max="31" width="1.73046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="AH3">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="17">
+        <f>AF4/$AH$3</f>
+        <v>0.8125</v>
+      </c>
+      <c r="H4" s="7">
+        <v>7</v>
+      </c>
+      <c r="I4" s="7">
+        <v>8</v>
+      </c>
+      <c r="J4" s="7">
+        <v>8</v>
+      </c>
+      <c r="K4" s="7">
+        <v>7</v>
+      </c>
+      <c r="L4" s="7">
+        <v>8</v>
+      </c>
+      <c r="M4" s="7">
+        <v>9</v>
+      </c>
+      <c r="N4" s="7">
+        <v>7</v>
+      </c>
+      <c r="O4" s="7">
+        <v>8</v>
+      </c>
+      <c r="P4" s="7">
+        <v>9</v>
+      </c>
+      <c r="Q4">
+        <v>8</v>
+      </c>
+      <c r="R4">
+        <v>6</v>
+      </c>
+      <c r="S4">
+        <v>8</v>
+      </c>
+      <c r="T4" s="7">
+        <v>8</v>
+      </c>
+      <c r="U4" s="7">
+        <v>8</v>
+      </c>
+      <c r="V4" s="7">
+        <v>8</v>
+      </c>
+      <c r="W4" s="7">
+        <v>10</v>
+      </c>
+      <c r="X4" s="7">
+        <v>10</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>10</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>8</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>8</v>
+      </c>
+      <c r="AB4" s="7">
+        <v>8</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>8</v>
+      </c>
+      <c r="AD4" s="7">
+        <v>8</v>
+      </c>
+      <c r="AE4" s="7">
+        <v>8</v>
+      </c>
+      <c r="AF4">
+        <f>SUM(H4:AE4)</f>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="17">
+        <f>AF5/$AH$3</f>
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="H5" s="7">
+        <v>8</v>
+      </c>
+      <c r="I5" s="7">
+        <v>8</v>
+      </c>
+      <c r="J5" s="7">
+        <v>8</v>
+      </c>
+      <c r="K5" s="7">
+        <v>6</v>
+      </c>
+      <c r="L5" s="7">
+        <v>9</v>
+      </c>
+      <c r="M5" s="7">
+        <v>9</v>
+      </c>
+      <c r="N5" s="7">
+        <v>8</v>
+      </c>
+      <c r="O5" s="7">
+        <v>8</v>
+      </c>
+      <c r="P5" s="7">
+        <v>8</v>
+      </c>
+      <c r="Q5">
+        <v>7</v>
+      </c>
+      <c r="R5">
+        <v>6</v>
+      </c>
+      <c r="S5">
+        <v>8</v>
+      </c>
+      <c r="T5" s="7">
+        <v>8</v>
+      </c>
+      <c r="U5" s="7">
+        <v>8</v>
+      </c>
+      <c r="V5" s="7">
+        <v>8</v>
+      </c>
+      <c r="W5" s="7">
+        <v>7</v>
+      </c>
+      <c r="X5" s="7">
+        <v>8</v>
+      </c>
+      <c r="Y5" s="7">
+        <v>8</v>
+      </c>
+      <c r="Z5" s="7">
+        <v>8</v>
+      </c>
+      <c r="AA5" s="7">
+        <v>8</v>
+      </c>
+      <c r="AB5" s="7">
+        <v>7</v>
+      </c>
+      <c r="AC5" s="7">
+        <v>8</v>
+      </c>
+      <c r="AD5" s="7">
+        <v>8</v>
+      </c>
+      <c r="AE5" s="7">
+        <v>7</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" ref="AF5:AF7" si="0">SUM(H5:AE5)</f>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="17">
+        <f>AF6/$AH$3</f>
+        <v>0.8</v>
+      </c>
+      <c r="H6" s="7">
+        <v>7</v>
+      </c>
+      <c r="I6" s="7">
+        <v>8</v>
+      </c>
+      <c r="J6" s="7">
+        <v>8</v>
+      </c>
+      <c r="K6" s="7">
+        <v>7</v>
+      </c>
+      <c r="L6" s="7">
+        <v>8</v>
+      </c>
+      <c r="M6" s="7">
+        <v>9</v>
+      </c>
+      <c r="N6" s="7">
+        <v>8</v>
+      </c>
+      <c r="O6" s="7">
+        <v>9</v>
+      </c>
+      <c r="P6" s="7">
+        <v>9</v>
+      </c>
+      <c r="Q6">
+        <v>7</v>
+      </c>
+      <c r="R6">
+        <v>9</v>
+      </c>
+      <c r="S6">
+        <v>9</v>
+      </c>
+      <c r="T6" s="7">
+        <v>8</v>
+      </c>
+      <c r="U6" s="7">
+        <v>8</v>
+      </c>
+      <c r="V6" s="7">
+        <v>9</v>
+      </c>
+      <c r="W6" s="7">
+        <v>9</v>
+      </c>
+      <c r="X6" s="7">
+        <v>10</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>10</v>
+      </c>
+      <c r="Z6" s="7">
+        <v>5</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>7</v>
+      </c>
+      <c r="AB6" s="7">
+        <v>8</v>
+      </c>
+      <c r="AC6" s="7">
+        <v>5</v>
+      </c>
+      <c r="AD6" s="7">
+        <v>7</v>
+      </c>
+      <c r="AE6" s="7">
+        <v>8</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="2:34" x14ac:dyDescent="0.45">
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="17">
+        <f>AF7/$AH$3</f>
+        <v>0.80833333333333335</v>
+      </c>
+      <c r="H7" s="7">
+        <v>8</v>
+      </c>
+      <c r="I7" s="7">
+        <v>8</v>
+      </c>
+      <c r="J7" s="7">
+        <v>8</v>
+      </c>
+      <c r="K7" s="7">
+        <v>8</v>
+      </c>
+      <c r="L7" s="7">
+        <v>9</v>
+      </c>
+      <c r="M7" s="7">
+        <v>8</v>
+      </c>
+      <c r="N7" s="7">
+        <v>9</v>
+      </c>
+      <c r="O7" s="7">
+        <v>9</v>
+      </c>
+      <c r="P7" s="7">
+        <v>8</v>
+      </c>
+      <c r="Q7">
+        <v>8</v>
+      </c>
+      <c r="R7">
+        <v>8</v>
+      </c>
+      <c r="S7">
+        <v>7</v>
+      </c>
+      <c r="T7" s="7">
+        <v>7</v>
+      </c>
+      <c r="U7" s="7">
+        <v>8</v>
+      </c>
+      <c r="V7" s="7">
+        <v>8</v>
+      </c>
+      <c r="W7" s="7">
+        <v>8</v>
+      </c>
+      <c r="X7" s="7">
+        <v>10</v>
+      </c>
+      <c r="Y7" s="7">
+        <v>7</v>
+      </c>
+      <c r="Z7" s="7">
+        <v>8</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>8</v>
+      </c>
+      <c r="AB7" s="7">
+        <v>8</v>
+      </c>
+      <c r="AC7" s="7">
+        <v>8</v>
+      </c>
+      <c r="AD7" s="7">
+        <v>8</v>
+      </c>
+      <c r="AE7" s="7">
+        <v>8</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="0"/>
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EB1F546-72E2-42E1-BB59-953EDB120818}">
   <dimension ref="B1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="J10" sqref="H6:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:11" ht="20.25" x14ac:dyDescent="0.7">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
       <c r="K2" s="12"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.45">
@@ -1304,29 +2740,29 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="41"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="33"/>
       <c r="K13" s="11"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="44"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="36"/>
       <c r="K14" s="11"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.45">
@@ -1335,10 +2771,10 @@
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="44"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="36"/>
       <c r="K15" s="11"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.45">
@@ -1347,18 +2783,18 @@
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="44"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="36"/>
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B17" s="1"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="47"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="39"/>
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -1388,24 +2824,24 @@
   <dimension ref="B1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="J10" sqref="H6:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:11" ht="20.25" x14ac:dyDescent="0.7">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
       <c r="K2" s="12"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.45">
@@ -1531,29 +2967,29 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="41"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="33"/>
       <c r="K13" s="11"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="44"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="36"/>
       <c r="K14" s="11"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.45">
@@ -1562,10 +2998,10 @@
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="44"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="36"/>
       <c r="K15" s="11"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.45">
@@ -1574,18 +3010,18 @@
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="44"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="36"/>
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B17" s="1"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="47"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="39"/>
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -1615,7 +3051,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="J9" sqref="H5:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1738,24 +3174,24 @@
   <dimension ref="B1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M23"/>
+      <selection activeCell="J10" sqref="H6:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:11" ht="20.25" x14ac:dyDescent="0.7">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
       <c r="K2" s="12"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.45">
@@ -1881,29 +3317,29 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="23"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="24"/>
       <c r="K13" s="11"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="26"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="27"/>
       <c r="K14" s="11"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.45">
@@ -1912,10 +3348,10 @@
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="26"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="27"/>
       <c r="K15" s="11"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.45">
@@ -1924,34 +3360,34 @@
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="26"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="27"/>
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B17" s="1"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="26"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="27"/>
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B18" s="1"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="26"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="27"/>
       <c r="K18" s="11"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B19" s="1"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="29"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="30"/>
       <c r="K19" s="11"/>
     </row>
     <row r="20" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -1981,24 +3417,24 @@
   <dimension ref="B1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:L19"/>
+      <selection activeCell="J10" sqref="H6:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:11" ht="20.25" x14ac:dyDescent="0.7">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
       <c r="K2" s="12"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.45">
@@ -2124,29 +3560,29 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="41"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="33"/>
       <c r="K13" s="11"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="44"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="36"/>
       <c r="K14" s="11"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.45">
@@ -2155,10 +3591,10 @@
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="42"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="44"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="36"/>
       <c r="K15" s="11"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.45">
@@ -2167,18 +3603,18 @@
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="44"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="36"/>
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B17" s="1"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="47"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="39"/>
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -2208,24 +3644,24 @@
   <dimension ref="B1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13:J17"/>
+      <selection activeCell="L19" sqref="A1:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="2" spans="2:11" ht="20.25" x14ac:dyDescent="0.7">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
       <c r="K2" s="12"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.45">
@@ -2351,31 +3787,31 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="30" t="s">
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="32"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="42"/>
       <c r="K13" s="11"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.45">
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="35"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="45"/>
       <c r="K14" s="11"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.45">
@@ -2384,10 +3820,10 @@
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="35"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="45"/>
       <c r="K15" s="11"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.45">
@@ -2396,18 +3832,18 @@
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="35"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="45"/>
       <c r="K16" s="11"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B17" s="1"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="38"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="48"/>
       <c r="K17" s="11"/>
     </row>
     <row r="18" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
@@ -2434,12 +3870,229 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3A0818E-3F71-401B-A899-BB2C4802C4EA}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="H6:J10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:11" ht="20.25" x14ac:dyDescent="0.7">
+      <c r="B2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="12"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B3" s="1"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B5" s="1"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B6" s="1"/>
+      <c r="H6" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="7">
+        <v>8</v>
+      </c>
+      <c r="I7" s="7">
+        <v>8</v>
+      </c>
+      <c r="J7" s="7">
+        <v>8</v>
+      </c>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="7">
+        <v>8</v>
+      </c>
+      <c r="I8" s="7">
+        <v>8</v>
+      </c>
+      <c r="J8" s="7">
+        <v>7</v>
+      </c>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B9" s="3">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="7">
+        <v>5</v>
+      </c>
+      <c r="I9" s="7">
+        <v>7</v>
+      </c>
+      <c r="J9" s="7">
+        <v>8</v>
+      </c>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B10" s="3">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="7">
+        <v>8</v>
+      </c>
+      <c r="I10" s="7">
+        <v>8</v>
+      </c>
+      <c r="J10" s="7">
+        <v>8</v>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B11" s="3"/>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="7">
+        <f>SUM(H7:H10)</f>
+        <v>29</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" ref="I11:J11" si="0">SUM(I7:I10)</f>
+        <v>31</v>
+      </c>
+      <c r="J11" s="7">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B12" s="3"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B13" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="11"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="11"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B16" s="9"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="11"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
+      <c r="B17" s="1"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="2:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B13:F14"/>
+    <mergeCell ref="G13:J17"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2448,8 +4101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD4CD36-B728-455E-B931-F48CC96E8E9D}">
   <dimension ref="B3:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2459,14 +4112,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:7" ht="21" x14ac:dyDescent="0.45">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C5" s="14" t="s">
@@ -2594,9 +4247,15 @@
       <c r="B15" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="C15" s="8">
+        <v>30</v>
+      </c>
+      <c r="D15" s="8">
+        <v>32</v>
+      </c>
+      <c r="E15" s="8">
+        <v>32</v>
+      </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B16" s="14" t="s">
@@ -2604,15 +4263,15 @@
       </c>
       <c r="C16" s="8">
         <f>SUM(C8:C15)</f>
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="D16" s="8">
         <f t="shared" ref="D16:E16" si="0">SUM(D8:D15)</f>
-        <v>230</v>
+        <v>262</v>
       </c>
       <c r="E16" s="8">
         <f t="shared" si="0"/>
-        <v>232</v>
+        <v>264</v>
       </c>
       <c r="F16" t="s">
         <v>29</v>
@@ -2627,17 +4286,17 @@
       <c r="B18" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="57">
+      <c r="C18" s="17">
         <f>C16/$F$17</f>
-        <v>0.66874999999999996</v>
-      </c>
-      <c r="D18" s="57">
+        <v>0.76249999999999996</v>
+      </c>
+      <c r="D18" s="17">
         <f t="shared" ref="D18:E18" si="1">D16/$F$17</f>
-        <v>0.71875</v>
-      </c>
-      <c r="E18" s="57">
+        <v>0.81874999999999998</v>
+      </c>
+      <c r="E18" s="17">
         <f t="shared" si="1"/>
-        <v>0.72499999999999998</v>
+        <v>0.82499999999999996</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.45">
@@ -2649,87 +4308,87 @@
       <c r="B22" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B23" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="50"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="57"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B24" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="C24" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="50"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="57"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B25" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="56" t="s">
+      <c r="C25" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="56"/>
-      <c r="E25" s="56"/>
-      <c r="F25" s="56"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B26" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="56" t="s">
+      <c r="C26" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="56"/>
-      <c r="E26" s="56"/>
-      <c r="F26" s="56"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B27" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="56" t="s">
+      <c r="C27" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56"/>
-      <c r="F27" s="56"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
     </row>
     <row r="28" spans="2:6" ht="60.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B28" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B29" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="52"/>
-      <c r="F29" s="53"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="9">
